--- a/统计分析.xlsx
+++ b/统计分析.xlsx
@@ -986,7 +986,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
